--- a/kd-tree, octree/octree-kdtree.xlsx
+++ b/kd-tree, octree/octree-kdtree.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="4">
   <si>
     <t>Numero de Puntos</t>
   </si>
@@ -25,6 +25,9 @@
   </si>
   <si>
     <t>Kd-tree</t>
+  </si>
+  <si>
+    <t>Numero de Busquedas</t>
   </si>
 </sst>
 </file>
@@ -226,7 +229,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
@@ -246,6 +249,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -285,7 +289,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Hoja1!$C$3</c:f>
+              <c:f>Hoja1!$C$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -299,7 +303,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Hoja1!$B$4:$B$13</c:f>
+              <c:f>Hoja1!$B$2:$B$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -338,7 +342,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Hoja1!$C$4:$C$13</c:f>
+              <c:f>Hoja1!$C$2:$C$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -382,7 +386,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Hoja1!$D$3</c:f>
+              <c:f>Hoja1!$D$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -396,7 +400,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Hoja1!$B$4:$B$13</c:f>
+              <c:f>Hoja1!$B$2:$B$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -435,7 +439,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Hoja1!$D$4:$D$13</c:f>
+              <c:f>Hoja1!$D$2:$D$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -484,11 +488,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="155789952"/>
-        <c:axId val="204584064"/>
+        <c:axId val="104658432"/>
+        <c:axId val="104659968"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="155789952"/>
+        <c:axId val="104658432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -498,7 +502,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="204584064"/>
+        <c:crossAx val="104659968"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -506,7 +510,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="204584064"/>
+        <c:axId val="104659968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -517,7 +521,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="155789952"/>
+        <c:crossAx val="104658432"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -539,20 +543,287 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="es-PE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Hoja1!$C$27</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Octree</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Hoja1!$B$28:$B$37</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>60000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>70000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>80000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>90000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Hoja1!$C$28:$C$36</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0.16700000000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.20699999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.308</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.42899999999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.70499999999999996</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.85399999999999998</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.76600000000000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.139</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.2909999999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Hoja1!$D$27</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Kd-tree</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Hoja1!$B$28:$B$37</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>60000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>70000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>80000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>90000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Hoja1!$D$28:$D$36</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0.28899999999999998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.32400000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.49</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.73</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.1839999999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.536</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.5680000000000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.8109999999999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.157</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="43989632"/>
+        <c:axId val="43991424"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="43989632"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="43991424"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="43991424"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="43989632"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup orientation="portrait"/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>133350</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>857250</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>19049</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>133350</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>123824</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -566,6 +837,38 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1028700</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>733425</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="2 Gráfico"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -861,141 +1164,261 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:D13"/>
+  <dimension ref="B1:D38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="A32" sqref="A32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.5703125" customWidth="1"/>
+    <col min="1" max="1" width="23.28515625" customWidth="1"/>
     <col min="2" max="2" width="13.140625" customWidth="1"/>
     <col min="3" max="3" width="13.5703125" customWidth="1"/>
     <col min="4" max="4" width="13.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="3" spans="2:4" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="12" t="s">
+    <row r="1" spans="2:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="10" t="s">
+      <c r="C1" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="11" t="s">
+      <c r="D1" s="11" t="s">
         <v>2</v>
       </c>
     </row>
+    <row r="2" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B2" s="4">
+        <v>10000</v>
+      </c>
+      <c r="C2" s="1">
+        <v>0.54200000000000004</v>
+      </c>
+      <c r="D2" s="5">
+        <v>2.9870000000000001</v>
+      </c>
+    </row>
+    <row r="3" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="6">
+        <v>20000</v>
+      </c>
+      <c r="C3" s="2">
+        <v>0.93300000000000005</v>
+      </c>
+      <c r="D3" s="7">
+        <v>6.6</v>
+      </c>
+    </row>
     <row r="4" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B4" s="4">
-        <v>10000</v>
-      </c>
-      <c r="C4" s="1">
-        <v>0.54200000000000004</v>
-      </c>
-      <c r="D4" s="5">
-        <v>2.9870000000000001</v>
+      <c r="B4" s="6">
+        <v>30000</v>
+      </c>
+      <c r="C4" s="2">
+        <v>1.857</v>
+      </c>
+      <c r="D4" s="7">
+        <v>11.395</v>
       </c>
     </row>
     <row r="5" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B5" s="6">
-        <v>20000</v>
+        <v>40000</v>
       </c>
       <c r="C5" s="2">
-        <v>0.93300000000000005</v>
+        <v>2.5790000000000002</v>
       </c>
       <c r="D5" s="7">
-        <v>6.6</v>
+        <v>15.39</v>
       </c>
     </row>
     <row r="6" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B6" s="6">
-        <v>30000</v>
+        <v>50000</v>
       </c>
       <c r="C6" s="2">
-        <v>1.857</v>
+        <v>2.8980000000000001</v>
       </c>
       <c r="D6" s="7">
-        <v>11.395</v>
+        <v>20.94</v>
       </c>
     </row>
     <row r="7" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B7" s="6">
-        <v>40000</v>
+        <v>60000</v>
       </c>
       <c r="C7" s="2">
-        <v>2.5790000000000002</v>
+        <v>3.8839999999999999</v>
       </c>
       <c r="D7" s="7">
-        <v>15.39</v>
+        <v>24.57</v>
       </c>
     </row>
     <row r="8" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B8" s="6">
-        <v>50000</v>
+        <v>70000</v>
       </c>
       <c r="C8" s="2">
-        <v>2.8980000000000001</v>
+        <v>4.7709999999999999</v>
       </c>
       <c r="D8" s="7">
-        <v>20.94</v>
+        <v>29.256</v>
       </c>
     </row>
     <row r="9" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B9" s="6">
-        <v>60000</v>
+        <v>80000</v>
       </c>
       <c r="C9" s="2">
-        <v>3.8839999999999999</v>
+        <v>4.7240000000000002</v>
       </c>
       <c r="D9" s="7">
-        <v>24.57</v>
+        <v>33.232999999999997</v>
       </c>
     </row>
     <row r="10" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B10" s="6">
+        <v>90000</v>
+      </c>
+      <c r="C10" s="2">
+        <v>6.3040000000000003</v>
+      </c>
+      <c r="D10" s="7">
+        <v>37.898000000000003</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="8">
+        <v>100000</v>
+      </c>
+      <c r="C11" s="3">
+        <v>6.87</v>
+      </c>
+      <c r="D11" s="9">
+        <v>42.289000000000001</v>
+      </c>
+    </row>
+    <row r="26" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="27" spans="2:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B27" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="D27" s="11" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B28" s="4">
+        <v>10000</v>
+      </c>
+      <c r="C28" s="1">
+        <v>0.16700000000000001</v>
+      </c>
+      <c r="D28" s="5">
+        <v>0.28899999999999998</v>
+      </c>
+    </row>
+    <row r="29" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B29" s="6">
+        <v>20000</v>
+      </c>
+      <c r="C29" s="2">
+        <v>0.20699999999999999</v>
+      </c>
+      <c r="D29" s="7">
+        <v>0.32400000000000001</v>
+      </c>
+    </row>
+    <row r="30" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B30" s="6">
+        <v>30000</v>
+      </c>
+      <c r="C30" s="2">
+        <v>0.308</v>
+      </c>
+      <c r="D30" s="7">
+        <v>0.49</v>
+      </c>
+    </row>
+    <row r="31" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B31" s="6">
+        <v>40000</v>
+      </c>
+      <c r="C31" s="2">
+        <v>0.42899999999999999</v>
+      </c>
+      <c r="D31" s="7">
+        <v>0.73</v>
+      </c>
+    </row>
+    <row r="32" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B32" s="6">
+        <v>50000</v>
+      </c>
+      <c r="C32" s="2">
+        <v>0.70499999999999996</v>
+      </c>
+      <c r="D32" s="7">
+        <v>1.1839999999999999</v>
+      </c>
+    </row>
+    <row r="33" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B33" s="6">
+        <v>60000</v>
+      </c>
+      <c r="C33" s="2">
+        <v>0.85399999999999998</v>
+      </c>
+      <c r="D33" s="7">
+        <v>1.536</v>
+      </c>
+    </row>
+    <row r="34" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B34" s="6">
         <v>70000</v>
       </c>
-      <c r="C10" s="2">
-        <v>4.7709999999999999</v>
-      </c>
-      <c r="D10" s="7">
-        <v>29.256</v>
-      </c>
-    </row>
-    <row r="11" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B11" s="6">
+      <c r="C34" s="2">
+        <v>0.76600000000000001</v>
+      </c>
+      <c r="D34" s="7">
+        <v>1.5680000000000001</v>
+      </c>
+    </row>
+    <row r="35" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B35" s="6">
         <v>80000</v>
       </c>
-      <c r="C11" s="2">
-        <v>4.7240000000000002</v>
-      </c>
-      <c r="D11" s="7">
-        <v>33.232999999999997</v>
-      </c>
-    </row>
-    <row r="12" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B12" s="6">
+      <c r="C35" s="2">
+        <v>1.139</v>
+      </c>
+      <c r="D35" s="7">
+        <v>1.8109999999999999</v>
+      </c>
+    </row>
+    <row r="36" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B36" s="8">
         <v>90000</v>
       </c>
-      <c r="C12" s="2">
-        <v>6.3040000000000003</v>
-      </c>
-      <c r="D12" s="7">
-        <v>37.898000000000003</v>
-      </c>
-    </row>
-    <row r="13" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="8">
-        <v>100000</v>
-      </c>
-      <c r="C13" s="3">
-        <v>6.87</v>
-      </c>
-      <c r="D13" s="9">
-        <v>42.289000000000001</v>
-      </c>
+      <c r="C36" s="3">
+        <v>1.2909999999999999</v>
+      </c>
+      <c r="D36" s="9">
+        <v>2.157</v>
+      </c>
+    </row>
+    <row r="37" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B37" s="13"/>
+      <c r="C37" s="13"/>
+      <c r="D37" s="13"/>
+    </row>
+    <row r="38" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B38" s="13"/>
+      <c r="C38" s="13"/>
+      <c r="D38" s="13"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
